--- a/repo.xlsx
+++ b/repo.xlsx
@@ -11,7 +11,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t xml:space="preserve"> &lt;b&gt;123&lt;/b&gt; Header 1</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">123</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> Header 1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Header 2</t>
@@ -307,7 +321,28 @@
     <t xml:space="preserve">333ggggggggggg</t>
   </si>
   <si>
-    <t xml:space="preserve">QQQQQQQ &lt;b&gt;123&lt;/b&gt; QQQQQQQQ</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">QQQQQQQ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">123</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> QQQQQQQQ</t>
+    </r>
   </si>
 </sst>
 </file>
